--- a/medicine/Enfance/Irina_Korschunow/Irina_Korschunow.xlsx
+++ b/medicine/Enfance/Irina_Korschunow/Irina_Korschunow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Irina Korschunow (Stendal, 31 décembre 1925-Munich, 31 décembre 2013) est une femme de lettres allemande. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Irina Korschunow est née de mère allemande et de père russe. Après la seconde guerre mondiale, la famille s'installe à Göttingen. Irina Korschunow étudie l'allemand, l'anglais et le théâtre à l'Université Louis-et-Maximilien de Munich[1].
-Elle commence à écrire des livres de littérature d'enfance et de jeunesse à la fin des années 1950 et reçoit de nombreux prix. Ses livres les plus connus pour la jeunesse sont Die Sache mit Christoph (1978) et Er hieß Jan (1979)[2].
-À partir de 1983, elle écrit des romans pour adultes, genre auquel appartient son dernier roman, Langsamer Abschied (2009)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irina Korschunow est née de mère allemande et de père russe. Après la seconde guerre mondiale, la famille s'installe à Göttingen. Irina Korschunow étudie l'allemand, l'anglais et le théâtre à l'Université Louis-et-Maximilien de Munich.
+Elle commence à écrire des livres de littérature d'enfance et de jeunesse à la fin des années 1950 et reçoit de nombreux prix. Ses livres les plus connus pour la jeunesse sont Die Sache mit Christoph (1978) et Er hieß Jan (1979).
+À partir de 1983, elle écrit des romans pour adultes, genre auquel appartient son dernier roman, Langsamer Abschied (2009).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvre traduite en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Christophe (Die Sache mit Christoph, 1978), Duculot, coll. Travelling, 1979
 Petit Poil (Kleiner Pelz, 1984), illustré par Reinhard Michl, L'École des loisirs, 1985
@@ -582,7 +598,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Toucan 1977
 Stylet d'argent 1985
